--- a/da-ptud-qllkmt/GUI/bin/Debug/BieuMauNhapHang.xlsx
+++ b/da-ptud-qllkmt/GUI/bin/Debug/BieuMauNhapHang.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\doan-cnpm\da-ptud-qllkmt\GUI\bin\Debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DULIEUHOCTAP\ki6\doan\doan-cnpm\da-ptud-qllkmt\GUI\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{735927E5-44B3-4DB6-AB5B-EABD1AB9AEB9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -42,9 +41,6 @@
     <t>%NgayThangNam</t>
   </si>
   <si>
-    <t>Thống kê mua hàng</t>
-  </si>
-  <si>
     <t>Số TT</t>
   </si>
   <si>
@@ -103,12 +99,15 @@
   </si>
   <si>
     <t>%TongTien</t>
+  </si>
+  <si>
+    <t>Thống kê nhập hàng</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -618,25 +617,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="A3" sqref="A3:D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.5" customWidth="1"/>
-    <col min="2" max="2" width="17.69921875" customWidth="1"/>
-    <col min="3" max="3" width="17.296875" customWidth="1"/>
+    <col min="2" max="2" width="17.75" customWidth="1"/>
+    <col min="3" max="3" width="17.25" customWidth="1"/>
     <col min="4" max="4" width="20" customWidth="1"/>
-    <col min="5" max="5" width="27.69921875" customWidth="1"/>
-    <col min="6" max="6" width="26.59765625" customWidth="1"/>
-    <col min="7" max="7" width="27.3984375" customWidth="1"/>
+    <col min="5" max="5" width="27.75" customWidth="1"/>
+    <col min="6" max="6" width="26.625" customWidth="1"/>
+    <col min="7" max="7" width="27.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
@@ -646,39 +645,39 @@
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="25"/>
       <c r="B2" s="26"/>
       <c r="C2" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="4"/>
     </row>
-    <row r="3" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A3" s="27" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="B3" s="28"/>
       <c r="C3" s="28"/>
       <c r="D3" s="28"/>
       <c r="E3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -686,51 +685,51 @@
       <c r="E4" s="3"/>
       <c r="F4" s="4"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="7" t="s">
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D6" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="7" t="s">
+      <c r="E6" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>21</v>
-      </c>
       <c r="G6" s="8"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="8"/>
       <c r="B7" s="9"/>
       <c r="C7" s="10"/>
@@ -738,12 +737,12 @@
       <c r="E7" s="10"/>
       <c r="F7" s="11"/>
       <c r="G7" s="11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B8" s="20"/>
       <c r="C8" s="20"/>
@@ -752,7 +751,7 @@
       <c r="F8" s="14"/>
       <c r="G8" s="14"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="21"/>
       <c r="B9" s="17"/>
       <c r="C9" s="17"/>
@@ -761,7 +760,7 @@
       <c r="F9" s="15"/>
       <c r="G9" s="15"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="21"/>
       <c r="B10" s="17"/>
       <c r="C10" s="17"/>
@@ -770,7 +769,7 @@
       <c r="F10" s="15"/>
       <c r="G10" s="15"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="21"/>
       <c r="B11" s="17"/>
       <c r="C11" s="17"/>
@@ -779,7 +778,7 @@
       <c r="F11" s="15"/>
       <c r="G11" s="15"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="22"/>
       <c r="B12" s="18"/>
       <c r="C12" s="18"/>
